--- a/InputData/add-outputs/VoaSL/Value of a Statistical Life.xlsx
+++ b/InputData/add-outputs/VoaSL/Value of a Statistical Life.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\add-outputs\VoaSL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="24915" windowHeight="11580"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="VoaSL" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>VoaSL Value of a Statistical Life</t>
   </si>
@@ -47,9 +52,6 @@
     <t>Statistical Life</t>
   </si>
   <si>
-    <t>Value (2012$)</t>
-  </si>
-  <si>
     <t>This variable is used to convert from dollars (in the SCoHIbP Social Cost of</t>
   </si>
   <si>
@@ -63,12 +65,18 @@
   </si>
   <si>
     <t>Currency Year Adjustment</t>
+  </si>
+  <si>
+    <t>2012$/life</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,6 +145,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -184,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,22 +488,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,7 +511,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +542,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -540,13 +553,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <f>7.4*10^6*About!A17</f>
